--- a/data/trans_orig/P19E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>189210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>167226</v>
+        <v>167478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213914</v>
+        <v>214230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2895250349075189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2558858726264878</v>
+        <v>0.256271244648686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3273275438137468</v>
+        <v>0.3278102655487743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -763,19 +763,19 @@
         <v>231502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>206500</v>
+        <v>206807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256466</v>
+        <v>256284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3508206882466071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3129323392369955</v>
+        <v>0.3133970849714058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3886509754117694</v>
+        <v>0.388376276079576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>409</v>
@@ -784,19 +784,19 @@
         <v>420712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>386866</v>
+        <v>388045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>455229</v>
+        <v>454137</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3203214830233841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2945522030812446</v>
+        <v>0.2954493450607116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3466020271680229</v>
+        <v>0.3457710018192077</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>213038</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188286</v>
+        <v>187740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>236428</v>
+        <v>239121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3259867565399469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2881113039398062</v>
+        <v>0.287276461306763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3617771989656929</v>
+        <v>0.3658982505538033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -834,19 +834,19 @@
         <v>231148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>205688</v>
+        <v>208966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255499</v>
+        <v>257183</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3502847932776346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3117011391435393</v>
+        <v>0.3166691014480685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.387186312435071</v>
+        <v>0.389738359417841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>438</v>
@@ -855,19 +855,19 @@
         <v>444187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>412006</v>
+        <v>409026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481461</v>
+        <v>477793</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3381946895163689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3136926869062429</v>
+        <v>0.3114238734569971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3665750287931513</v>
+        <v>0.3637815769145744</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>155042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135147</v>
+        <v>134408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178384</v>
+        <v>179005</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2372424123800237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2067988304404961</v>
+        <v>0.2056689125363456</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2729589309997368</v>
+        <v>0.2739098727549584</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -905,19 +905,19 @@
         <v>151727</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>129299</v>
+        <v>129590</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174603</v>
+        <v>173576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2299293151056512</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1959412061073275</v>
+        <v>0.1963827886151303</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2645948530119301</v>
+        <v>0.2630384614196649</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>303</v>
@@ -926,19 +926,19 @@
         <v>306770</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277971</v>
+        <v>276096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>338300</v>
+        <v>337191</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2335681319293271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2116412025783838</v>
+        <v>0.2102138787724577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2575750233189336</v>
+        <v>0.2567301622657008</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>23354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15006</v>
+        <v>15524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33955</v>
+        <v>34467</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03573596909223888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02296156785048057</v>
+        <v>0.02375462854049856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0519569290590443</v>
+        <v>0.05274019582600287</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -976,19 +976,19 @@
         <v>14595</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8110</v>
+        <v>9060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24209</v>
+        <v>24776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02211720023002876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0122901471414293</v>
+        <v>0.01373032868252861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03668665597550887</v>
+        <v>0.03754655622852497</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -997,19 +997,19 @@
         <v>37949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26954</v>
+        <v>26968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51998</v>
+        <v>52165</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02889356370426078</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02052199679247226</v>
+        <v>0.02053258107291455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03958992944940092</v>
+        <v>0.03971756978110848</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>72874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58078</v>
+        <v>57914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90576</v>
+        <v>90841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1115098270802717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08886943427640012</v>
+        <v>0.08861893453969484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1385972100132791</v>
+        <v>0.1390032093540018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1047,19 +1047,19 @@
         <v>30914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20789</v>
+        <v>20979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44969</v>
+        <v>43092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04684800314007841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0315036698230923</v>
+        <v>0.03179170788863913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06814675953970033</v>
+        <v>0.06530261223864743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>98</v>
@@ -1068,19 +1068,19 @@
         <v>103788</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>85540</v>
+        <v>85629</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125282</v>
+        <v>124227</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07902213182665915</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0651283161156709</v>
+        <v>0.06519642239476724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09538683356518025</v>
+        <v>0.09458417585706003</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>333982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>302691</v>
+        <v>301507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>364548</v>
+        <v>364685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3321421626080192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.301023522940968</v>
+        <v>0.2998462831738324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3625398213920305</v>
+        <v>0.3626756547391305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>397</v>
@@ -1193,19 +1193,19 @@
         <v>421371</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>387272</v>
+        <v>389592</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>455373</v>
+        <v>454382</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4092747270099483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3761543835218842</v>
+        <v>0.378407577642494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4423004220314883</v>
+        <v>0.441338229835448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>705</v>
@@ -1214,19 +1214,19 @@
         <v>755353</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>707547</v>
+        <v>708035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>797375</v>
+        <v>800713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3711635592918948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3476725530714373</v>
+        <v>0.347912649306127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.391812261582089</v>
+        <v>0.3934525480332309</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>308074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278188</v>
+        <v>277598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>338260</v>
+        <v>338560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3063765842084247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2766557919828673</v>
+        <v>0.2760683398867823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3363961265528703</v>
+        <v>0.3366944368431918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>338</v>
@@ -1264,19 +1264,19 @@
         <v>360104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331004</v>
+        <v>331780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>390602</v>
+        <v>391230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3497665363474776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3215016902260834</v>
+        <v>0.3222557418901561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3793886322109334</v>
+        <v>0.3799991137538721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1285,19 +1285,19 @@
         <v>668178</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625368</v>
+        <v>625575</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>710129</v>
+        <v>711438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3283275791953101</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3072920330563763</v>
+        <v>0.3073934823550804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.348941283701067</v>
+        <v>0.3495845774379144</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>265109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>236021</v>
+        <v>238256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>291970</v>
+        <v>296934</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2636487635398517</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2347209947217862</v>
+        <v>0.2369433785479828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2903613067907381</v>
+        <v>0.2952980561120673</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>181</v>
@@ -1335,19 +1335,19 @@
         <v>192654</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168504</v>
+        <v>164736</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>215791</v>
+        <v>218020</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1871231588125011</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1636666210376878</v>
+        <v>0.1600067675407851</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2095963904865211</v>
+        <v>0.2117612081065851</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>428</v>
@@ -1356,19 +1356,19 @@
         <v>457763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>423543</v>
+        <v>421778</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>500880</v>
+        <v>495877</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.224934428009932</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2081195589013479</v>
+        <v>0.2072520668702761</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2461213712048562</v>
+        <v>0.2436626643088579</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>23874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14818</v>
+        <v>15578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36010</v>
+        <v>35183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02374251450289096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0147359997255403</v>
+        <v>0.01549251166863452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03581165726124408</v>
+        <v>0.03498925033687786</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1406,19 +1406,19 @@
         <v>13907</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6746</v>
+        <v>6985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22933</v>
+        <v>24138</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01350777266646548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006552208354943687</v>
+        <v>0.006784784669802986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02227492908733042</v>
+        <v>0.02344494239654092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1427,19 +1427,19 @@
         <v>37781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26396</v>
+        <v>25341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54093</v>
+        <v>51020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01856475431492257</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01297055484940267</v>
+        <v>0.01245223878639618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02658021494296494</v>
+        <v>0.02506999219645299</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>74500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60750</v>
+        <v>58146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93484</v>
+        <v>91435</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07408997514081354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06041519334119851</v>
+        <v>0.05782548410764871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09296937560952992</v>
+        <v>0.09093076448699589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1477,19 +1477,19 @@
         <v>41520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29367</v>
+        <v>29271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56355</v>
+        <v>57626</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04032780516360761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02852404605477824</v>
+        <v>0.02843047372842302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05473718627584315</v>
+        <v>0.05597178822935314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -1498,19 +1498,19 @@
         <v>116020</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94739</v>
+        <v>95791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137726</v>
+        <v>138787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05700967918794049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04655246276804381</v>
+        <v>0.04706930330092016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06767527631580464</v>
+        <v>0.0681967827829721</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>232335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>206657</v>
+        <v>208524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263949</v>
+        <v>259635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3219590424240451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2863758651729362</v>
+        <v>0.2889632251629041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3657681053601265</v>
+        <v>0.3597900047304076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>299</v>
@@ -1623,19 +1623,19 @@
         <v>314956</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>287934</v>
+        <v>287368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>341147</v>
+        <v>343175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4199657520289576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3839335578345157</v>
+        <v>0.383179655700838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4548886170699604</v>
+        <v>0.4575929288299769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -1644,19 +1644,19 @@
         <v>547291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>507234</v>
+        <v>510410</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>582071</v>
+        <v>586193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3719057318570541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3446849461992881</v>
+        <v>0.3468434111857845</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3955396887303479</v>
+        <v>0.3983407989327261</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>190817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166425</v>
+        <v>167913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215668</v>
+        <v>215642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2644248440181277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2306245869228047</v>
+        <v>0.2326863188995508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2988632005292243</v>
+        <v>0.298826252054144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1694,19 +1694,19 @@
         <v>225913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201144</v>
+        <v>203392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>252183</v>
+        <v>252867</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3012348245201171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2682077090962006</v>
+        <v>0.2712046277754646</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3362637824549662</v>
+        <v>0.3371753219589083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>392</v>
@@ -1715,19 +1715,19 @@
         <v>416730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384530</v>
+        <v>382938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>456862</v>
+        <v>454984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2831841378621874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.261303377301786</v>
+        <v>0.260221259701704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3104552695554895</v>
+        <v>0.3091796803951393</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>212997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>187920</v>
+        <v>185429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>238115</v>
+        <v>237353</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2951614989471427</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2604112849216607</v>
+        <v>0.2569592844955712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3299685029505273</v>
+        <v>0.3289121766255219</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>151</v>
@@ -1765,19 +1765,19 @@
         <v>158789</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>136568</v>
+        <v>137777</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>181123</v>
+        <v>183468</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2117308106091106</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.182101397796246</v>
+        <v>0.1837135870263966</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2415117506186011</v>
+        <v>0.2446382185915643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>342</v>
@@ -1786,19 +1786,19 @@
         <v>371786</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>333837</v>
+        <v>334719</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>404343</v>
+        <v>406376</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2526431173342885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2268550448351722</v>
+        <v>0.2274543662215204</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2747665999356905</v>
+        <v>0.2761480898994428</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>29393</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19315</v>
+        <v>19465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42688</v>
+        <v>42844</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04073081745070124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02676518469197907</v>
+        <v>0.02697354069159733</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05915455310303604</v>
+        <v>0.05937152407745223</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1836,19 +1836,19 @@
         <v>24259</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15010</v>
+        <v>15343</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37905</v>
+        <v>37636</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03234768442050846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02001421381872374</v>
+        <v>0.02045891739531472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05054291923831143</v>
+        <v>0.05018430146849238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1857,19 +1857,19 @@
         <v>53652</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39516</v>
+        <v>40134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71613</v>
+        <v>72462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03645856156513429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02685240908098801</v>
+        <v>0.02727288427905766</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04866372195094659</v>
+        <v>0.04924073929745759</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>56088</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43097</v>
+        <v>43705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72247</v>
+        <v>72595</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07772379715998333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05972225352382764</v>
+        <v>0.06056385220674457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1001161019811534</v>
+        <v>0.1005988292186552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -1907,19 +1907,19 @@
         <v>26039</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17556</v>
+        <v>17052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37343</v>
+        <v>37352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03472092842130619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02340910505680397</v>
+        <v>0.02273668223619736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04979358369919906</v>
+        <v>0.04980610011534215</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>75</v>
@@ -1928,19 +1928,19 @@
         <v>82127</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67166</v>
+        <v>65882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102156</v>
+        <v>104223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05580845138133575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04564213350519484</v>
+        <v>0.04476939945982915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06941890468567032</v>
+        <v>0.07082334481448226</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>404292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>375235</v>
+        <v>375583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>432775</v>
+        <v>436859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4407504003007423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4090729853136971</v>
+        <v>0.4094515590881727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4718019417716643</v>
+        <v>0.4762542147789871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>494</v>
@@ -2053,19 +2053,19 @@
         <v>530331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>500952</v>
+        <v>496789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>568222</v>
+        <v>564838</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.521855460658618</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.492945996634008</v>
+        <v>0.4888495099403344</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5591407620068678</v>
+        <v>0.5558114198112332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>893</v>
@@ -2074,19 +2074,19 @@
         <v>934623</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>891626</v>
+        <v>891063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>981150</v>
+        <v>981141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4833784477006055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4611404451343812</v>
+        <v>0.4608493642286967</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5074418318712466</v>
+        <v>0.5074368415162844</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>278614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>253137</v>
+        <v>251704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>307784</v>
+        <v>306322</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3037383537124016</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2759645545918766</v>
+        <v>0.2744015607253606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3355389406240534</v>
+        <v>0.333945607209521</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -2124,19 +2124,19 @@
         <v>313673</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>283342</v>
+        <v>285061</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343334</v>
+        <v>344983</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3086600480442975</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2788139992070304</v>
+        <v>0.2805053776831042</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3378467911262274</v>
+        <v>0.3394696040593049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>565</v>
@@ -2145,19 +2145,19 @@
         <v>592287</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550296</v>
+        <v>552173</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631312</v>
+        <v>636594</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.306325149386333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2846081340234422</v>
+        <v>0.2855787291646652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3265088559468436</v>
+        <v>0.3292403600108592</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>172450</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>148971</v>
+        <v>151664</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196317</v>
+        <v>197285</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1880008527140798</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1624049710764489</v>
+        <v>0.1653410554732174</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2140206529747675</v>
+        <v>0.2150750825729722</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -2195,19 +2195,19 @@
         <v>137072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>112479</v>
+        <v>114908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157481</v>
+        <v>159255</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1348810311265019</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1106819065543097</v>
+        <v>0.1130716646205771</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1549640126625012</v>
+        <v>0.1567094248280642</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>298</v>
@@ -2216,19 +2216,19 @@
         <v>309521</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>276080</v>
+        <v>279173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>341844</v>
+        <v>345105</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1600815803220007</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1427857431423055</v>
+        <v>0.1443856805247965</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1767985341465575</v>
+        <v>0.17848483271666</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>21842</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14222</v>
+        <v>14304</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31934</v>
+        <v>32600</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02381197006741614</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01550449419005584</v>
+        <v>0.01559441935553461</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03481395653363241</v>
+        <v>0.03553993547127939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2266,19 +2266,19 @@
         <v>10046</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5040</v>
+        <v>4647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19224</v>
+        <v>20747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009885608223510792</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004959531565188257</v>
+        <v>0.004572378289114825</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01891715687319633</v>
+        <v>0.02041580042213767</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -2287,19 +2287,19 @@
         <v>31888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22127</v>
+        <v>21848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45104</v>
+        <v>45642</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01649240689626319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01144395146695893</v>
+        <v>0.01129934254934593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02332741913710677</v>
+        <v>0.02360578602627856</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>40084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29397</v>
+        <v>29253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54958</v>
+        <v>54543</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04369842320536022</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0320480020364163</v>
+        <v>0.03189064827859926</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05991360592727115</v>
+        <v>0.05946126464258587</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2337,19 +2337,19 @@
         <v>25119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16199</v>
+        <v>15902</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37691</v>
+        <v>37603</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02471785194707189</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01594019325457288</v>
+        <v>0.01564750430666224</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03708873895413272</v>
+        <v>0.03700211564397759</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>60</v>
@@ -2358,19 +2358,19 @@
         <v>65203</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>51114</v>
+        <v>50624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84113</v>
+        <v>82309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03372241569479768</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02643579523007867</v>
+        <v>0.02618222733139962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04350262358206279</v>
+        <v>0.04256961199696956</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>1159819</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1103916</v>
+        <v>1104026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1217128</v>
+        <v>1212076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3516768791810073</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3347260257733845</v>
+        <v>0.3347593440824672</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3690537674932622</v>
+        <v>0.3675221725149477</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1420</v>
@@ -2483,19 +2483,19 @@
         <v>1498160</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1435587</v>
+        <v>1440842</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1557015</v>
+        <v>1556139</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4335405397652995</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4154329266520032</v>
+        <v>0.4169535347361967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4505718356250996</v>
+        <v>0.4503183655573297</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2517</v>
@@ -2504,19 +2504,19 @@
         <v>2657980</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2575636</v>
+        <v>2571407</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2737114</v>
+        <v>2739367</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3935643245691807</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3813717611843505</v>
+        <v>0.380745550128183</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4052816501405505</v>
+        <v>0.4056151813736849</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>990542</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>935129</v>
+        <v>938444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1042629</v>
+        <v>1041860</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3003492446485673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2835469012925993</v>
+        <v>0.2845521843186458</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3161428891754341</v>
+        <v>0.3159098227666063</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1071</v>
@@ -2554,19 +2554,19 @@
         <v>1130839</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1072750</v>
+        <v>1073929</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1186590</v>
+        <v>1191032</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.327244282017195</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3104344688229672</v>
+        <v>0.3107754942992269</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.343377563597331</v>
+        <v>0.3446631282953429</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2020</v>
@@ -2575,19 +2575,19 @@
         <v>2121381</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2039645</v>
+        <v>2044533</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2200559</v>
+        <v>2195488</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3141107158673053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3020081039848773</v>
+        <v>0.3027318903890395</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3258345339179194</v>
+        <v>0.3250836538650297</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>805598</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>756327</v>
+        <v>758485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>854992</v>
+        <v>856483</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2442710768999066</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2293311075857061</v>
+        <v>0.2299856328327358</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2592482163777878</v>
+        <v>0.2597002206236445</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>605</v>
@@ -2625,19 +2625,19 @@
         <v>640242</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>596236</v>
+        <v>597474</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>688372</v>
+        <v>689079</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1852743864861112</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1725398529800754</v>
+        <v>0.1728980622291741</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1992025363436935</v>
+        <v>0.1994071112119154</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1371</v>
@@ -2646,19 +2646,19 @@
         <v>1445840</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1379631</v>
+        <v>1379086</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1512986</v>
+        <v>1514859</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2140840484900752</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2042805823589219</v>
+        <v>0.2041998998693369</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2240262473814086</v>
+        <v>0.2243036270591545</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>98463</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>79158</v>
+        <v>81060</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>119366</v>
+        <v>119098</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02985564039932224</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02400195843642251</v>
+        <v>0.02457876433001552</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03619365158032341</v>
+        <v>0.03611249715532537</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>53</v>
@@ -2696,19 +2696,19 @@
         <v>62807</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47322</v>
+        <v>47180</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80244</v>
+        <v>82494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01817532455341282</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0136941902761318</v>
+        <v>0.01365301756496276</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02322116171842696</v>
+        <v>0.02387218698086458</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>148</v>
@@ -2717,19 +2717,19 @@
         <v>161270</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>136512</v>
+        <v>137517</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>189621</v>
+        <v>188558</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02387913521228172</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02021317896684708</v>
+        <v>0.02036196595868047</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02807697288011263</v>
+        <v>0.02791953001344392</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>243546</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>216547</v>
+        <v>214968</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>275631</v>
+        <v>276331</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0738471588711965</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06566075555279</v>
+        <v>0.06518203525085195</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08357609963508965</v>
+        <v>0.08378812064053703</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>110</v>
@@ -2767,19 +2767,19 @@
         <v>123593</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>101150</v>
+        <v>103079</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>148198</v>
+        <v>149023</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03576546717798144</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02927091244660843</v>
+        <v>0.02982928355425029</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04288576883462271</v>
+        <v>0.04312457485741483</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>341</v>
@@ -2788,19 +2788,19 @@
         <v>367138</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>328317</v>
+        <v>331602</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>403139</v>
+        <v>410295</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05436177586115708</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04861359440420511</v>
+        <v>0.0491000176504332</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05969244372928324</v>
+        <v>0.06075188113146649</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>147002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122776</v>
+        <v>119408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175295</v>
+        <v>174251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2155345931011661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1800145666053587</v>
+        <v>0.1750752817561305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2570174765398581</v>
+        <v>0.2554862527299036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>325</v>
@@ -3153,19 +3153,19 @@
         <v>209674</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189695</v>
+        <v>189463</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229678</v>
+        <v>230135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2882067035933771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2607443203592586</v>
+        <v>0.260425842907581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3157025180212588</v>
+        <v>0.3163312207407002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -3174,19 +3174,19 @@
         <v>356677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>324104</v>
+        <v>324811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391464</v>
+        <v>393967</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2530430250798751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2299342620049055</v>
+        <v>0.2304362035116487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2777227507544964</v>
+        <v>0.2794983489190707</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>307214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277762</v>
+        <v>280109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>337486</v>
+        <v>335190</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4504360679298345</v>
+        <v>0.4504360679298344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4072541014566806</v>
+        <v>0.4106946767148404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4948218597083422</v>
+        <v>0.4914556889036476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>622</v>
@@ -3224,19 +3224,19 @@
         <v>375890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>354603</v>
+        <v>352728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>398181</v>
+        <v>399625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5166778016996013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.487417393897963</v>
+        <v>0.484839544403316</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5473173450289286</v>
+        <v>0.549302441693353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>934</v>
@@ -3245,19 +3245,19 @@
         <v>683104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646506</v>
+        <v>643971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719267</v>
+        <v>719614</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4846255740337112</v>
+        <v>0.4846255740337113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4586613871085551</v>
+        <v>0.4568630690140008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5102812227626604</v>
+        <v>0.5105271942992868</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>186570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164403</v>
+        <v>163337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211856</v>
+        <v>209438</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2735478980778865</v>
+        <v>0.2735478980778864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2410475457532575</v>
+        <v>0.239483852331712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3106227620631049</v>
+        <v>0.3070777695199829</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>214</v>
@@ -3295,19 +3295,19 @@
         <v>110086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>96606</v>
+        <v>96776</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126060</v>
+        <v>127703</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1513176149795102</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.132789460277255</v>
+        <v>0.1330229170091183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1732751519734586</v>
+        <v>0.1755331428282257</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>433</v>
@@ -3316,19 +3316,19 @@
         <v>296655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>270798</v>
+        <v>270728</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>326349</v>
+        <v>327072</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2104608867294933</v>
+        <v>0.2104608867294934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.192116823145704</v>
+        <v>0.1920671820382914</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2315273693957735</v>
+        <v>0.2320398833420094</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>12280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7262</v>
+        <v>7233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18165</v>
+        <v>18501</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0180048588678835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0106475624980552</v>
+        <v>0.0106047658202085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02663419997426496</v>
+        <v>0.0271267279655553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3366,19 +3366,19 @@
         <v>13671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8636</v>
+        <v>8450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20955</v>
+        <v>20789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01879113529813937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01187060181530442</v>
+        <v>0.01161442313235348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02880350714549676</v>
+        <v>0.0285755943999831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -3387,19 +3387,19 @@
         <v>25951</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18449</v>
+        <v>18598</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34362</v>
+        <v>34780</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01841068162163269</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01308827994163294</v>
+        <v>0.01319403780962481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02437766128895658</v>
+        <v>0.02467438591973528</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>28971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21106</v>
+        <v>21352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39811</v>
+        <v>40428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0424765820232294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03094572971287309</v>
+        <v>0.03130641687240227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05837095201779325</v>
+        <v>0.05927608128378745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -3437,19 +3437,19 @@
         <v>18193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13111</v>
+        <v>13221</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25176</v>
+        <v>25356</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02500674442937205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01802145380246584</v>
+        <v>0.01817295071500293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03460579012053671</v>
+        <v>0.03485330646905847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -3458,19 +3458,19 @@
         <v>47163</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37928</v>
+        <v>37647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59209</v>
+        <v>59232</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03345983253528761</v>
+        <v>0.03345983253528762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02690787315430397</v>
+        <v>0.02670867322716488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04200575018831582</v>
+        <v>0.04202224447071152</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>228669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194277</v>
+        <v>201563</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256461</v>
+        <v>262227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2182986949394604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1854658399903663</v>
+        <v>0.1924214854910822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2448303192481134</v>
+        <v>0.2503350275684197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>447</v>
@@ -3583,19 +3583,19 @@
         <v>340745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>312906</v>
+        <v>313272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>370664</v>
+        <v>371503</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3204176194826417</v>
+        <v>0.3204176194826416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2942401490065836</v>
+        <v>0.2945838143164415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3485517690249343</v>
+        <v>0.3493412249130312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>631</v>
@@ -3604,19 +3604,19 @@
         <v>569414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>529671</v>
+        <v>526845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>618682</v>
+        <v>614056</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2697435455507744</v>
+        <v>0.2697435455507743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.250916709306745</v>
+        <v>0.249577997935824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2930828198274853</v>
+        <v>0.2908914953236967</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>582457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>549727</v>
+        <v>547595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621191</v>
+        <v>615831</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5560412541078098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5247959410656264</v>
+        <v>0.5227609616441473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5930185857040262</v>
+        <v>0.5879016960775778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>767</v>
@@ -3654,19 +3654,19 @@
         <v>537518</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>505114</v>
+        <v>506725</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565527</v>
+        <v>567225</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5054525808946422</v>
+        <v>0.5054525808946421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4749815206739285</v>
+        <v>0.4764964581229233</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5317904410020509</v>
+        <v>0.5333870747780988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -3675,19 +3675,19 @@
         <v>1119975</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1068691</v>
+        <v>1076576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1163403</v>
+        <v>1170104</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5305560000501693</v>
+        <v>0.5305560000501695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5062618032275671</v>
+        <v>0.5099970451646824</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5511287805657471</v>
+        <v>0.5543031828135528</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>188379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163872</v>
+        <v>164965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216927</v>
+        <v>218274</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1798357970818315</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1564404087634296</v>
+        <v>0.1574839321734289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2070885778559498</v>
+        <v>0.2083751353451364</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -3725,19 +3725,19 @@
         <v>144064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125800</v>
+        <v>125150</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165387</v>
+        <v>164797</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1354702876104752</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1182957300457292</v>
+        <v>0.1176843280575089</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1555211459605117</v>
+        <v>0.1549661727395992</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>415</v>
@@ -3746,19 +3746,19 @@
         <v>332443</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>304087</v>
+        <v>299839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>372648</v>
+        <v>366878</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1574856105981925</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.144052335759297</v>
+        <v>0.1420403533143968</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1765315911242189</v>
+        <v>0.1737981100623476</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>18404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11178</v>
+        <v>10885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27824</v>
+        <v>27991</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01756958324230229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01067152251808003</v>
+        <v>0.01039178515685564</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02656247034767794</v>
+        <v>0.02672190134067998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -3796,19 +3796,19 @@
         <v>14858</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9394</v>
+        <v>9363</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22350</v>
+        <v>22604</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01397182469015198</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008833709871263565</v>
+        <v>0.008804020905212111</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02101649124245236</v>
+        <v>0.02125587174554605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3817,19 +3817,19 @@
         <v>33262</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24436</v>
+        <v>23643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46474</v>
+        <v>44634</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0157571263242637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01157607059442751</v>
+        <v>0.01120042579860865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02201580676902571</v>
+        <v>0.02114398434926412</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>29597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20628</v>
+        <v>20795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42527</v>
+        <v>42325</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02825467062859585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01969245707798319</v>
+        <v>0.01985155876363633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04059852231251817</v>
+        <v>0.04040511908604754</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -3867,19 +3867,19 @@
         <v>26254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19757</v>
+        <v>19288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35234</v>
+        <v>36032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.024687687322089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01857802323420831</v>
+        <v>0.01813730199158999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03313216979929368</v>
+        <v>0.03388225294741437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>81</v>
@@ -3888,19 +3888,19 @@
         <v>55851</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43952</v>
+        <v>44888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69605</v>
+        <v>70394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0264577174766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02082104268711214</v>
+        <v>0.02126449683210602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03297323726202084</v>
+        <v>0.03334716295321645</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>162219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138266</v>
+        <v>138555</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>193818</v>
+        <v>191488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2024424191100812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1725501253533284</v>
+        <v>0.172910813347351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2418772574873578</v>
+        <v>0.2389694682578328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>275</v>
@@ -4013,19 +4013,19 @@
         <v>225263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203101</v>
+        <v>203027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251491</v>
+        <v>252876</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2781942176216436</v>
+        <v>0.2781942176216437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2508244994492507</v>
+        <v>0.2507336757722478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3105855760114723</v>
+        <v>0.3122960802904958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>401</v>
@@ -4034,19 +4034,19 @@
         <v>387481</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350110</v>
+        <v>350566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425521</v>
+        <v>425716</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.240516373883884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2173190366332668</v>
+        <v>0.2176025652714731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2641279973279105</v>
+        <v>0.2642491478671788</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>415369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>380836</v>
+        <v>380302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>448211</v>
+        <v>448664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5183633423772007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4752682796840371</v>
+        <v>0.4746020345692603</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5593497004490917</v>
+        <v>0.5599145578462765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>565</v>
@@ -4084,19 +4084,19 @@
         <v>446251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>418781</v>
+        <v>418932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>470019</v>
+        <v>473683</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5511098549246783</v>
+        <v>0.5511098549246785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5171852167826803</v>
+        <v>0.5173706246231277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5804622595251506</v>
+        <v>0.5849869252297017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>912</v>
@@ -4105,19 +4105,19 @@
         <v>861620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>819647</v>
+        <v>816826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>904416</v>
+        <v>902480</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5348222154631265</v>
+        <v>0.5348222154631266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5087686281703415</v>
+        <v>0.5070180417906527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5613864005482162</v>
+        <v>0.5601847440536385</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>184653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>158719</v>
+        <v>159587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213002</v>
+        <v>214477</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2304396757892264</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1980748698591793</v>
+        <v>0.1991585922874533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2658174283949503</v>
+        <v>0.2676583009656319</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>171</v>
@@ -4155,19 +4155,19 @@
         <v>116598</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99365</v>
+        <v>101200</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134990</v>
+        <v>136013</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1439963948127522</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1227133903395328</v>
+        <v>0.1249795685798619</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1667097047345026</v>
+        <v>0.1679728951110052</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>335</v>
@@ -4176,19 +4176,19 @@
         <v>301252</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>271473</v>
+        <v>269801</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>337542</v>
+        <v>332295</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.186992026557571</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1685076761165635</v>
+        <v>0.1674698522418877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2095180453920333</v>
+        <v>0.206261131104936</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>9051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4172</v>
+        <v>4469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16164</v>
+        <v>17709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01129552301654836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005206032436333281</v>
+        <v>0.005577364392119455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02017252604371187</v>
+        <v>0.02210004822142433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -4226,19 +4226,19 @@
         <v>3517</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1003</v>
+        <v>1168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8309</v>
+        <v>9095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004343522408876231</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001238376888149799</v>
+        <v>0.001443004690394358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01026107885292645</v>
+        <v>0.01123177475448574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4247,19 +4247,19 @@
         <v>12568</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6992</v>
+        <v>6936</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21212</v>
+        <v>21781</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.007801346483121807</v>
+        <v>0.007801346483121809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004339968699919897</v>
+        <v>0.004305254990138029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01316671802500617</v>
+        <v>0.01351982838111058</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>30016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20543</v>
+        <v>20731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42786</v>
+        <v>42840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03745903970694334</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02563738814910944</v>
+        <v>0.0258720016143787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05339499721175841</v>
+        <v>0.05346275437043486</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -4297,19 +4297,19 @@
         <v>18102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12612</v>
+        <v>11787</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26841</v>
+        <v>26953</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02235601023204937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01557541543377662</v>
+        <v>0.01455641854263171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03314820793517657</v>
+        <v>0.03328683499935978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -4318,19 +4318,19 @@
         <v>48119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35557</v>
+        <v>35338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62390</v>
+        <v>62618</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02986803761229667</v>
+        <v>0.02986803761229666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02207081746117057</v>
+        <v>0.02193504801401553</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03872653573635176</v>
+        <v>0.0388679594787504</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>279382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>250951</v>
+        <v>249935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>311646</v>
+        <v>307572</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.283845176065081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.254960041446696</v>
+        <v>0.2539278506354296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3166250333892987</v>
+        <v>0.3124855256432009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>525</v>
@@ -4443,19 +4443,19 @@
         <v>403165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>371565</v>
+        <v>374542</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>430680</v>
+        <v>432349</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3625711693608126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3341523833430912</v>
+        <v>0.3368297512383032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3873155169580778</v>
+        <v>0.3888161794872855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>797</v>
@@ -4464,19 +4464,19 @@
         <v>682547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>641722</v>
+        <v>641421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>724156</v>
+        <v>724413</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3256058590944633</v>
+        <v>0.3256058590944634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3061300990689113</v>
+        <v>0.3059867890032537</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3454548887479189</v>
+        <v>0.3455776881511486</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>502795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>469605</v>
+        <v>470724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>538621</v>
+        <v>535653</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5108273214671329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4771065981008982</v>
+        <v>0.4782438372484931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5472255298895284</v>
+        <v>0.5442103878667789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>777</v>
@@ -4514,19 +4514,19 @@
         <v>551834</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>522712</v>
+        <v>523684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>582955</v>
+        <v>582829</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4962702619004852</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4700806709336268</v>
+        <v>0.4709544997861191</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5242582752197892</v>
+        <v>0.5241447960037393</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1283</v>
@@ -4535,19 +4535,19 @@
         <v>1054629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1011031</v>
+        <v>1013148</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1100277</v>
+        <v>1105620</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5031054404853458</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4823072212769924</v>
+        <v>0.4833173608378977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5248819131508646</v>
+        <v>0.5274307212655609</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>167580</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>143106</v>
+        <v>142007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194359</v>
+        <v>192968</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.170257579323654</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1453917489328928</v>
+        <v>0.1442756691387274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1974642551062245</v>
+        <v>0.1960506297263474</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>203</v>
@@ -4585,19 +4585,19 @@
         <v>127507</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111782</v>
+        <v>111170</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>147014</v>
+        <v>145691</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1146686832062453</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.100526602995839</v>
+        <v>0.09997651362688466</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1322114483080024</v>
+        <v>0.1310219307060712</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>387</v>
@@ -4606,19 +4606,19 @@
         <v>295088</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>268028</v>
+        <v>264288</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>326717</v>
+        <v>325343</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1407701105280303</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1278613429223316</v>
+        <v>0.1260774876634028</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1558586959565124</v>
+        <v>0.1552033852946552</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>12170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6929</v>
+        <v>7100</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19837</v>
+        <v>20077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01236428622266137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007040171466310544</v>
+        <v>0.007213607545658547</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02015388549594093</v>
+        <v>0.02039798044602989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4659,16 +4659,16 @@
         <v>7201</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18549</v>
+        <v>18320</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01050073120199949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006476057731602592</v>
+        <v>0.006475921910808575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01668140057684176</v>
+        <v>0.01647579711800487</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -4677,19 +4677,19 @@
         <v>23846</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17012</v>
+        <v>16148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33881</v>
+        <v>33966</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01137575210238252</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008115469505123988</v>
+        <v>0.007703325789133287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01616296132473068</v>
+        <v>0.01620329493272054</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>22349</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14009</v>
+        <v>14220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34212</v>
+        <v>35853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02270563692147051</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01423318470561553</v>
+        <v>0.01444725745013019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03475838587519552</v>
+        <v>0.03642548592709459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -4727,19 +4727,19 @@
         <v>17779</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12252</v>
+        <v>11842</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26536</v>
+        <v>25399</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01598915433045741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01101793383480243</v>
+        <v>0.01064986183558222</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02386391521045365</v>
+        <v>0.02284170411998742</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -4748,19 +4748,19 @@
         <v>40128</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29832</v>
+        <v>28445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54479</v>
+        <v>53940</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.019142837789778</v>
+        <v>0.01914283778977801</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01423126830783581</v>
+        <v>0.01356931235424746</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02598881668800742</v>
+        <v>0.02573199454209013</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>817272</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>757912</v>
+        <v>758862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>876340</v>
+        <v>878208</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2325015550815581</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2156146601769081</v>
+        <v>0.2158847150647733</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2493054501978822</v>
+        <v>0.2498369163668153</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1572</v>
@@ -4873,19 +4873,19 @@
         <v>1178847</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1131446</v>
+        <v>1127372</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1235072</v>
+        <v>1230439</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3175220029254342</v>
+        <v>0.3175220029254341</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3047544835262478</v>
+        <v>0.3036572059103252</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3326661388589176</v>
+        <v>0.3314182030672327</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2282</v>
@@ -4894,19 +4894,19 @@
         <v>1996119</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1908886</v>
+        <v>1922456</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2071664</v>
+        <v>2087191</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2761735104468416</v>
+        <v>0.2761735104468415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2641042760232118</v>
+        <v>0.2659817646854079</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2866254758802864</v>
+        <v>0.2887736661389677</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>1807833</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1742694</v>
+        <v>1742445</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1875551</v>
+        <v>1878217</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5143013244128906</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4957701533280013</v>
+        <v>0.4956994211678862</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5335659873297568</v>
+        <v>0.5343242609592428</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2731</v>
@@ -4944,19 +4944,19 @@
         <v>1911494</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1858322</v>
+        <v>1858327</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1962533</v>
+        <v>1971849</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5148599596739342</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5005380899966351</v>
+        <v>0.500539465666233</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5286072314794968</v>
+        <v>0.5311166489317694</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4424</v>
@@ -4965,19 +4965,19 @@
         <v>3719327</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3634541</v>
+        <v>3628750</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3811548</v>
+        <v>3793009</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5145882753147556</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5028576430105892</v>
+        <v>0.5020565073152384</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5273475638117436</v>
+        <v>0.5247824951312224</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>727182</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>677462</v>
+        <v>678953</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>780047</v>
+        <v>778636</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2068722937002406</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1927278061697827</v>
+        <v>0.1931519392303669</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2219116538934736</v>
+        <v>0.2215100795423177</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>810</v>
@@ -5015,19 +5015,19 @@
         <v>498256</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>462600</v>
+        <v>465277</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>531142</v>
+        <v>534011</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1342049985451358</v>
+        <v>0.1342049985451357</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1246009975623118</v>
+        <v>0.1253221451105241</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1430628864498733</v>
+        <v>0.1438357090782774</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1570</v>
@@ -5036,19 +5036,19 @@
         <v>1225438</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1161589</v>
+        <v>1164512</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1288909</v>
+        <v>1286841</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1695457099076312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1607119422976235</v>
+        <v>0.1611163096740754</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1783273212496557</v>
+        <v>0.1780411820269103</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>51905</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38582</v>
+        <v>37732</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>65381</v>
+        <v>65296</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01476626111935018</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01097589013605416</v>
+        <v>0.01073430158901273</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01859988316991398</v>
+        <v>0.01857575807470004</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -5086,19 +5086,19 @@
         <v>43723</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33152</v>
+        <v>33382</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>55343</v>
+        <v>54725</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01177663866435037</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008929443587258985</v>
+        <v>0.008991436173104455</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01490668617616126</v>
+        <v>0.01474020577870284</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>132</v>
@@ -5107,19 +5107,19 @@
         <v>95628</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>80500</v>
+        <v>79444</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>113225</v>
+        <v>115526</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01323059926711489</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01113758780462164</v>
+        <v>0.01099145098509039</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0156652245333551</v>
+        <v>0.0159835963675026</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>110932</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92105</v>
+        <v>92783</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>130138</v>
+        <v>133335</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03155856568596064</v>
+        <v>0.03155856568596065</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02620246462987462</v>
+        <v>0.02639537164569443</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03702234537787837</v>
+        <v>0.03793176024972227</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>140</v>
@@ -5157,19 +5157,19 @@
         <v>80328</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>66165</v>
+        <v>68101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96297</v>
+        <v>95201</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0216364001911455</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01782143500862895</v>
+        <v>0.01834288376306894</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02593765013618625</v>
+        <v>0.02564222262717986</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>270</v>
@@ -5178,19 +5178,19 @@
         <v>191261</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>168880</v>
+        <v>169045</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>219318</v>
+        <v>218770</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02646190506365678</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02336547821182043</v>
+        <v>0.02338820058751319</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03034381814959683</v>
+        <v>0.03026792078750733</v>
       </c>
     </row>
     <row r="33">
